--- a/DATA_goal/Junction_Flooding_332.xlsx
+++ b/DATA_goal/Junction_Flooding_332.xlsx
@@ -449,8 +449,8 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
@@ -469,11 +469,11 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>45013.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.23</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.25</v>
+        <v>22.49</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.55</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.71</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.3</v>
+        <v>22.99</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.75</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>11.85</v>
+        <v>118.5</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.28</v>
+        <v>22.78</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.43</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.3</v>
+        <v>12.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.43</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45013.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.51</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.65</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.07</v>
+        <v>40.66</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.25</v>
+        <v>32.49</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.38</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.38</v>
+        <v>53.82</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.26</v>
+        <v>22.64</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.27</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.21</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.52</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.06</v>
+        <v>20.61</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>1.27</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.59</v>
+        <v>215.85</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.1</v>
+        <v>40.96</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.72</v>
+        <v>27.19</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.73</v>
+        <v>27.34</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.59</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.16</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.91</v>
+        <v>49.07</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.43</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45013.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>3.85</v>
+        <v>38.53</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.35</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.72</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45013.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.69</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>3.84</v>
+        <v>38.44</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.44</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_332.xlsx
+++ b/DATA_goal/Junction_Flooding_332.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45013.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.23</v>
+        <v>10.232</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.99</v>
+        <v>6.988</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.38</v>
+        <v>3.382</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>22.49</v>
+        <v>22.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16.55</v>
+        <v>16.551</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.71</v>
+        <v>7.711</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22.99</v>
+        <v>22.993</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.75</v>
+        <v>12.747</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.033</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.87</v>
+        <v>6.872</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.682</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>9.968</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.21</v>
+        <v>2.214</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.09</v>
+        <v>11.091</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.66</v>
+        <v>7.662</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.4</v>
+        <v>2.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.071</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>118.5</v>
+        <v>118.497</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>22.78</v>
+        <v>22.775</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.43</v>
+        <v>14.429</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.15</v>
+        <v>2.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.96</v>
+        <v>12.965</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.37</v>
+        <v>6.372</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.24</v>
+        <v>7.242</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.57</v>
+        <v>9.571</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.47</v>
+        <v>2.474</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>20.43</v>
+        <v>20.428</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.86</v>
+        <v>3.858</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>9.544</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45013.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.51</v>
+        <v>18.513</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.65</v>
+        <v>13.649</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.83</v>
+        <v>1.829</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>40.66</v>
+        <v>40.664</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.49</v>
+        <v>32.495</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.38</v>
+        <v>14.382</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>53.82</v>
+        <v>53.816</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>22.64</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>9.968</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.27</v>
+        <v>14.268</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.21</v>
+        <v>16.207</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.52</v>
+        <v>17.524</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.45</v>
+        <v>4.446</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.61</v>
+        <v>20.611</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.69</v>
+        <v>12.688</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.268</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.827</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>215.85</v>
+        <v>215.854</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>40.96</v>
+        <v>40.957</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.19</v>
+        <v>27.195</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.29</v>
+        <v>14.288</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.33</v>
+        <v>2.333</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.34</v>
+        <v>27.344</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.76</v>
+        <v>10.764</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.59</v>
+        <v>12.595</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>17.16</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.101</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>49.07</v>
+        <v>49.066</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.43</v>
+        <v>7.435</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.92</v>
+        <v>16.921</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45013.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.68</v>
+        <v>3.676</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.62</v>
+        <v>2.619</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.32</v>
+        <v>8.321999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.12</v>
+        <v>6.118</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>2.76</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.57</v>
+        <v>17.572</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>4.61</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.06</v>
+        <v>2.064</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.45</v>
+        <v>2.454</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.29</v>
+        <v>3.286</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.72</v>
+        <v>3.721</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.01</v>
+        <v>3.008</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.16</v>
+        <v>4.163</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.88</v>
+        <v>2.881</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.264</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.53</v>
+        <v>38.526</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.76</v>
+        <v>8.763999999999999</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.78</v>
+        <v>2.776</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.63</v>
+        <v>5.628</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.86</v>
+        <v>2.856</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.648</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.368</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.45</v>
+        <v>2.452</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.35</v>
+        <v>2.352</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.72</v>
+        <v>2.719</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>3.51</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.54</v>
+        <v>16.538</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.38</v>
+        <v>1.384</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.47</v>
+        <v>3.474</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45013.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>37.61</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>30.64</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>198.67</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>37.72</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>25.32</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>24.33</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.62</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_332.xlsx
+++ b/DATA_goal/Junction_Flooding_332.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,100 +970,204 @@
         <v>3.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.69</v>
+        <v>2.693</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.672</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>8.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.32</v>
+        <v>6.323</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.81</v>
+        <v>2.812</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.22</v>
+        <v>13.225</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.61</v>
+        <v>4.613</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.04</v>
+        <v>2.042</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.61</v>
+        <v>2.606</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.32</v>
+        <v>3.315</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.69</v>
+        <v>3.687</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0.82</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.01</v>
+        <v>3.008</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.11</v>
+        <v>4.107</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.79</v>
+        <v>2.793</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.606</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.21</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.44</v>
+        <v>38.439</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.44</v>
+        <v>8.436</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.78</v>
+        <v>2.776</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.41</v>
+        <v>5.408</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.84</v>
+        <v>2.839</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.578</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.34</v>
+        <v>6.337</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.45</v>
+        <v>2.452</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.3</v>
+        <v>2.303</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.68</v>
+        <v>2.679</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.52</v>
+        <v>3.518</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.522</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.03</v>
+        <v>12.026</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>1.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.47</v>
+        <v>3.471</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45013.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>37.61</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>198.67</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>37.72</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>25.32</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.62</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_332.xlsx
+++ b/DATA_goal/Junction_Flooding_332.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,204 +970,100 @@
         <v>3.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.693</v>
+        <v>2.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.672</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>8.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.323</v>
+        <v>6.32</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.812</v>
+        <v>2.81</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.225</v>
+        <v>13.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.613</v>
+        <v>4.61</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.042</v>
+        <v>2.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.606</v>
+        <v>2.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.315</v>
+        <v>3.32</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.687</v>
+        <v>3.69</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0.82</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.008</v>
+        <v>3.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.107</v>
+        <v>4.11</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.793</v>
+        <v>2.79</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.606</v>
+        <v>0.61</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.21</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.439</v>
+        <v>38.44</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.436</v>
+        <v>8.44</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.776</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.408</v>
+        <v>5.41</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.839</v>
+        <v>2.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.578</v>
+        <v>0.58</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.337</v>
+        <v>6.34</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.452</v>
+        <v>2.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.303</v>
+        <v>2.3</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.679</v>
+        <v>2.68</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.518</v>
+        <v>3.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.522</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.026</v>
+        <v>12.03</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>1.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.471</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45013.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>37.61</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>30.64</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>198.67</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>37.72</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>25.32</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>24.33</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.62</v>
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>
